--- a/data/trans_orig/IP1017-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1017-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAB31D5C-7249-4692-B5D2-BFD10B31B38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DD0FF37-B0A5-4BA8-8547-30875362D96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F5D02870-048E-406D-BAB6-5E609BC9CEA5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{33FA19DD-E5D2-4DC3-B141-7ABB73F2DCC2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -157,7 +157,7 @@
     <t>99,6%</t>
   </si>
   <si>
-    <t>Menores según si padecen leucemia en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Menores según si padecen leucemia en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>98,08%</t>
@@ -590,7 +590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F673B017-E3C6-42E4-9F35-14AA880D51D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A5591F-7C18-40D2-8EC5-A88341FC05BC}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1238,7 +1238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A91EACB-0367-47FA-A4CD-AD8E86F538A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C90A76-8FAB-409B-8E03-3F24740D5266}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1886,7 +1886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1BB118-F03A-4E5D-BB40-35D224553D51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD5397B-E42C-4D38-8B38-6BD63BF3D47A}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/IP1017-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1017-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DD0FF37-B0A5-4BA8-8547-30875362D96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AED9954A-A2E7-4090-ADA2-5EF1D723E566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{33FA19DD-E5D2-4DC3-B141-7ABB73F2DCC2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DBFE6E57-83E1-4B37-9CDE-7D8AADB44646}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="44">
   <si>
     <t>Menores según si padecen leucemia en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>No</t>
@@ -76,57 +76,48 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>98,6%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>98,6%</t>
-  </si>
-  <si>
     <t>99,28%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>99,69%</t>
+  </si>
+  <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>99,69%</t>
-  </si>
-  <si>
     <t>99,86%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>99,25%</t>
+  </si>
+  <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>99,25%</t>
-  </si>
-  <si>
     <t>99,61%</t>
   </si>
   <si>
+    <t>99,81%</t>
+  </si>
+  <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,81%</t>
-  </si>
-  <si>
     <t>99,91%</t>
   </si>
   <si>
@@ -136,46 +127,46 @@
     <t>Menores según si padecen leucemia en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>98,57%</t>
+  </si>
+  <si>
     <t>98,38%</t>
   </si>
   <si>
-    <t>98,57%</t>
-  </si>
-  <si>
     <t>99,24%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
+    <t>99,18%</t>
+  </si>
+  <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>99,18%</t>
-  </si>
-  <si>
     <t>99,6%</t>
   </si>
   <si>
     <t>Menores según si padecen leucemia en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>97,87%</t>
+  </si>
+  <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>97,87%</t>
-  </si>
-  <si>
     <t>98,98%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
+    <t>99,26%</t>
+  </si>
+  <si>
     <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -590,8 +581,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A5591F-7C18-40D2-8EC5-A88341FC05BC}">
-  <dimension ref="A1:Q14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00F296D-A9AB-4CA8-8DE9-226B85834133}">
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -708,10 +699,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D4" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -723,29 +714,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I4" s="7">
+        <v>86845</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N4" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -757,10 +750,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
@@ -772,23 +765,25 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I5" s="7">
+        <v>86845</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>13</v>
@@ -802,52 +797,52 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D6" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I6" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N6" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>13</v>
@@ -859,10 +854,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D7" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -874,10 +869,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I7" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -889,10 +884,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N7" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -906,52 +901,52 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D8" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I8" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N8" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -963,10 +958,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D9" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -978,10 +973,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I9" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -993,10 +988,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N9" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1010,16 +1005,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D10" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -1031,10 +1026,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I10" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
@@ -1046,10 +1041,10 @@
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N10" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
@@ -1067,10 +1062,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D11" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1082,10 +1077,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I11" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1097,10 +1092,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N11" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -1113,119 +1108,14 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D12" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I12" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D13" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I13" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1238,8 +1128,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C90A76-8FAB-409B-8E03-3F24740D5266}">
-  <dimension ref="A1:Q14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FB76CB-3622-4675-9CA3-8FBEB8E34623}">
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1255,7 +1145,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1356,44 +1246,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D4" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="I4" s="7">
+        <v>83537</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N4" s="7">
-        <v>641</v>
+        <v>175425</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1405,10 +1297,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
@@ -1420,23 +1312,25 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="I5" s="7">
+        <v>83537</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>175425</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>13</v>
@@ -1450,16 +1344,16 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>651</v>
       </c>
       <c r="D6" s="7">
-        <v>83537</v>
+        <v>449700</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
@@ -1471,31 +1365,31 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>133</v>
+        <v>705</v>
       </c>
       <c r="I6" s="7">
-        <v>91889</v>
+        <v>492404</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>250</v>
+        <v>1356</v>
       </c>
       <c r="N6" s="7">
-        <v>175425</v>
+        <v>942103</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>13</v>
@@ -1507,10 +1401,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>117</v>
+        <v>651</v>
       </c>
       <c r="D7" s="7">
-        <v>83537</v>
+        <v>449700</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -1522,10 +1416,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>133</v>
+        <v>705</v>
       </c>
       <c r="I7" s="7">
-        <v>91889</v>
+        <v>492404</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -1537,10 +1431,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>250</v>
+        <v>1356</v>
       </c>
       <c r="N7" s="7">
-        <v>175425</v>
+        <v>942103</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1554,52 +1448,52 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>705</v>
+        <v>234</v>
       </c>
       <c r="D8" s="7">
-        <v>492404</v>
+        <v>165340</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>651</v>
+        <v>243</v>
       </c>
       <c r="I8" s="7">
-        <v>449700</v>
+        <v>171561</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="7">
+        <v>477</v>
+      </c>
+      <c r="N8" s="7">
+        <v>336901</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1356</v>
-      </c>
-      <c r="N8" s="7">
-        <v>942103</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -1611,10 +1505,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>705</v>
+        <v>234</v>
       </c>
       <c r="D9" s="7">
-        <v>492404</v>
+        <v>165340</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1626,10 +1520,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>651</v>
+        <v>243</v>
       </c>
       <c r="I9" s="7">
-        <v>449700</v>
+        <v>171561</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1641,10 +1535,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>1356</v>
+        <v>477</v>
       </c>
       <c r="N9" s="7">
-        <v>942103</v>
+        <v>336901</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1658,52 +1552,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>243</v>
+        <v>1018</v>
       </c>
       <c r="D10" s="7">
-        <v>171561</v>
+        <v>706928</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>234</v>
+        <v>1065</v>
       </c>
       <c r="I10" s="7">
-        <v>165340</v>
+        <v>747501</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>477</v>
+        <v>2083</v>
       </c>
       <c r="N10" s="7">
-        <v>336901</v>
+        <v>1454429</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -1715,10 +1609,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>243</v>
+        <v>1018</v>
       </c>
       <c r="D11" s="7">
-        <v>171561</v>
+        <v>706928</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1730,10 +1624,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>234</v>
+        <v>1065</v>
       </c>
       <c r="I11" s="7">
-        <v>165340</v>
+        <v>747501</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1745,10 +1639,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>477</v>
+        <v>2083</v>
       </c>
       <c r="N11" s="7">
-        <v>336901</v>
+        <v>1454429</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -1761,119 +1655,14 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D12" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I12" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D13" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I13" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1886,8 +1675,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD5397B-E42C-4D38-8B38-6BD63BF3D47A}">
-  <dimension ref="A1:Q14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6786C3AC-0CC5-40E2-A59D-AC30785D8E2C}">
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1903,7 +1692,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2004,43 +1793,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D4" s="7">
+        <v>59378</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I4" s="7">
+        <v>68614</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N4" s="7">
+        <v>127993</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,93 +1844,99 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D5" s="7">
+        <v>59378</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I5" s="7">
+        <v>68614</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N5" s="7">
+        <v>127993</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D6" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
+        <v>695</v>
+      </c>
+      <c r="I6" s="7">
+        <v>488735</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>89</v>
-      </c>
-      <c r="I6" s="7">
-        <v>59378</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="L6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N6" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>13</v>
@@ -2147,10 +1948,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D7" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -2162,10 +1963,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I7" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -2177,10 +1978,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N7" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -2194,52 +1995,52 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D8" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="7">
+        <v>271</v>
+      </c>
+      <c r="I8" s="7">
+        <v>187495</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="7">
+        <v>529</v>
+      </c>
+      <c r="N8" s="7">
+        <v>360197</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="7">
-        <v>714</v>
-      </c>
-      <c r="I8" s="7">
-        <v>472290</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1409</v>
-      </c>
-      <c r="N8" s="7">
-        <v>961025</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -2251,10 +2052,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D9" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2266,10 +2067,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>714</v>
+        <v>271</v>
       </c>
       <c r="I9" s="7">
-        <v>472290</v>
+        <v>187495</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2281,10 +2082,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>1409</v>
+        <v>529</v>
       </c>
       <c r="N9" s="7">
-        <v>961025</v>
+        <v>360197</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2298,52 +2099,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D10" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I10" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>529</v>
+        <v>2126</v>
       </c>
       <c r="N10" s="7">
-        <v>360197</v>
+        <v>1449215</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2355,10 +2156,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D11" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -2370,10 +2171,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I11" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -2385,10 +2186,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>529</v>
+        <v>2126</v>
       </c>
       <c r="N11" s="7">
-        <v>360197</v>
+        <v>1449215</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -2401,119 +2202,14 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D12" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I12" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D13" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I13" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
